--- a/Guru99/3 - Design & Execution/Bug_Track.xlsx
+++ b/Guru99/3 - Design & Execution/Bug_Track.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\3 - Design &amp; Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA337371-73EA-4C7A-9FF6-30E71DB5E988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F2C02B-9AA2-4A2E-BC15-FEE28B8EED59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13490" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analystics" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <t>Mohamed Elbadri</t>
   </si>
   <si>
-    <t>Close</t>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,66 @@
     <cellStyle name="Style 1" xfId="1" xr:uid="{287ACB87-6AE0-472B-A8D4-441F07C74D25}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{10DDB5CD-AB9E-48C2-8F86-1C77D55DD4FC}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -453,16 +512,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -470,180 +519,6 @@
           <bgColor theme="1" tint="0.14996795556505021"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -693,6 +568,62 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,6 +774,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-700E-4136-B6E8-9999D230C641}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -885,6 +821,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-700E-4136-B6E8-9999D230C641}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -961,10 +902,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,18 +1599,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7C5F3E7-06E0-4508-90BB-F0C80C97A4DB}" name="Table1" displayName="Table1" ref="E5:F9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7C5F3E7-06E0-4508-90BB-F0C80C97A4DB}" name="Table1" displayName="Table1" ref="E5:F9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="E5:F9" xr:uid="{F7C5F3E7-06E0-4508-90BB-F0C80C97A4DB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1FC54D73-B609-485E-A36A-FB8B17D2E845}" name="Project name" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{23B5D82D-6FA7-4324-BF7E-EC26ED8CE2F9}" name="GURU99" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{1FC54D73-B609-485E-A36A-FB8B17D2E845}" name="Project name" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{23B5D82D-6FA7-4324-BF7E-EC26ED8CE2F9}" name="GURU99" dataDxfId="21" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" headerRowCellStyle="Normal" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowCellStyle="Normal" dataCellStyle="Style 2">
   <autoFilter ref="A1:J4" xr:uid="{DC3630C9-C3CD-4A83-9A94-2E8FCEF1ADB5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1683,16 +1624,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F18F0091-3208-4E8E-8AE4-A1C50467C708}" name="ID" dataDxfId="30" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{913354B5-6410-4099-BC20-6D22D7CF3A67}" name="Status" dataDxfId="29" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{1145CC29-F835-49A6-B3FD-3491058DD1CC}" name="TC_ID" dataDxfId="28" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{1052D6E6-76C7-4C4A-A44E-BB5B98BCF96E}" name="Version" dataDxfId="27" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{593FEC15-9A84-4A43-B282-715043DCD664}" name="Describtion" dataDxfId="26" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{C6410553-6BC8-4D9D-AFE9-6933D29F7352}" name="Steps" dataDxfId="25" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{8317167B-00E9-48D4-A3FE-F76ED9D15499}" name="Expected" dataDxfId="24" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{2936C252-4BAE-44E0-A7CD-84F997BE7713}" name="Actual" dataDxfId="23" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{426ECECC-1703-4021-8B3F-D7E130D91F30}" name="Priority" dataDxfId="22" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{51272853-C6DA-46DC-83EB-F2D0C665B3E5}" name="Severity" dataDxfId="21" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{F18F0091-3208-4E8E-8AE4-A1C50467C708}" name="ID" dataDxfId="18" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{913354B5-6410-4099-BC20-6D22D7CF3A67}" name="Status" dataDxfId="17" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{1145CC29-F835-49A6-B3FD-3491058DD1CC}" name="TC_ID" dataDxfId="16" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{1052D6E6-76C7-4C4A-A44E-BB5B98BCF96E}" name="Version" dataDxfId="15" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{593FEC15-9A84-4A43-B282-715043DCD664}" name="Describtion" dataDxfId="14" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{C6410553-6BC8-4D9D-AFE9-6933D29F7352}" name="Steps" dataDxfId="13" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{8317167B-00E9-48D4-A3FE-F76ED9D15499}" name="Expected" dataDxfId="12" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{2936C252-4BAE-44E0-A7CD-84F997BE7713}" name="Actual" dataDxfId="11" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{426ECECC-1703-4021-8B3F-D7E130D91F30}" name="Priority" dataDxfId="10" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{51272853-C6DA-46DC-83EB-F2D0C665B3E5}" name="Severity" dataDxfId="9" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1963,19 +1904,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E5:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="18.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E5" s="8" t="s">
         <v>59</v>
       </c>
@@ -1983,7 +1924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E6" s="8" t="s">
         <v>58</v>
       </c>
@@ -1991,7 +1932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E7" s="8" t="s">
         <v>61</v>
       </c>
@@ -2000,22 +1941,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E8" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="8">
         <f>COUNTIF(Bugs!B:B,"Open")</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:6" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="8">
         <f>COUNTIF(Bugs!B:B,"Close")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2032,26 +1973,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C910716-8D9C-49EF-A4F1-78A2A50B9BEA}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="2"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2083,12 +2024,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2115,7 +2056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2147,12 +2088,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>34</v>
@@ -2179,12 +2120,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
@@ -2211,12 +2152,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>32</v>
@@ -2243,12 +2184,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>39</v>
@@ -2275,7 +2216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
@@ -2307,12 +2248,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>51</v>
@@ -2339,12 +2280,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>55</v>
@@ -2371,40 +2312,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"Close"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B10">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Close"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
